--- a/グラフ/時系列データ.xlsx
+++ b/グラフ/時系列データ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14070" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14070" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="split125" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1833,7 +1833,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.000_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -2532,7 +2532,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="4" applyBorder="1">
@@ -2583,17 +2583,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2634,6 +2625,15 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="どちらでもない" xfId="3" builtinId="28"/>
@@ -2643,1571 +2643,9 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="96">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="double">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="double">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="double">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="double">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="double">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="double">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="double">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="double">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="double">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="double">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
+  <dxfs count="85">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4454,6 +2892,48 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -4570,6 +3050,1415 @@
         <name val="游ゴシック"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="double">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="double">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="double">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="double">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="double">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="double">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="double">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="double">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="double">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="double">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -11626,10 +11515,10 @@
     <tableColumn id="4" name="RECOMPRESSION:"/>
     <tableColumn id="5" name="ORIGINAL_NMD:"/>
     <tableColumn id="6" name="WEIGHTING_NMD:"/>
-    <tableColumn id="7" name="PRDC向上" dataDxfId="95">
+    <tableColumn id="7" name="PRDC向上" dataDxfId="84">
       <calculatedColumnFormula xml:space="preserve"> IF(C2 &lt;D2, "○",IF(C2=D2,"△","×"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="NMD向上" dataDxfId="94">
+    <tableColumn id="8" name="NMD向上" dataDxfId="83">
       <calculatedColumnFormula xml:space="preserve"> IF(E2 &lt;F2, "○",IF(E2=F2,"△","×"))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11638,21 +11527,21 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="A1:I86" totalsRowShown="0" headerRowDxfId="76" tableBorderDxfId="86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="A1:I86" totalsRowShown="0" headerRowDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="A1:I86"/>
   <sortState ref="A2:I86">
     <sortCondition ref="A1:A86"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="Name" dataDxfId="85"/>
-    <tableColumn id="2" name="First paper or data creator" dataDxfId="84"/>
-    <tableColumn id="3" name="Number of classes" dataDxfId="83"/>
-    <tableColumn id="4" name="Size of training set" dataDxfId="82"/>
-    <tableColumn id="5" name="Size of testing set" dataDxfId="81"/>
-    <tableColumn id="6" name="Time series Length " dataDxfId="80"/>
-    <tableColumn id="7" name="1-NN Euclidean Distance" dataDxfId="79"/>
-    <tableColumn id="8" name="1-NN Best Warping Window DTW (r)" dataDxfId="78"/>
-    <tableColumn id="9" name=" 1-NN DTW, no Warping Window" dataDxfId="77"/>
+    <tableColumn id="1" name="Name" dataDxfId="9"/>
+    <tableColumn id="2" name="First paper or data creator" dataDxfId="8"/>
+    <tableColumn id="3" name="Number of classes" dataDxfId="7"/>
+    <tableColumn id="4" name="Size of training set" dataDxfId="6"/>
+    <tableColumn id="5" name="Size of testing set" dataDxfId="5"/>
+    <tableColumn id="6" name="Time series Length " dataDxfId="4"/>
+    <tableColumn id="7" name="1-NN Euclidean Distance" dataDxfId="3"/>
+    <tableColumn id="8" name="1-NN Best Warping Window DTW (r)" dataDxfId="2"/>
+    <tableColumn id="9" name=" 1-NN DTW, no Warping Window" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11667,7 +11556,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="列1"/>
     <tableColumn id="2" name="列2"/>
-    <tableColumn id="3" name="列3" dataDxfId="75">
+    <tableColumn id="3" name="列3" dataDxfId="0">
       <calculatedColumnFormula>1-テーブル4[[#This Row],[列2]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11676,21 +11565,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="テーブル12" displayName="テーブル12" ref="A1:E87" totalsRowCount="1" headerRowDxfId="73" headerRowBorderDxfId="71" tableBorderDxfId="72" totalsRowBorderDxfId="70">
-  <autoFilter ref="A1:E87"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="テーブル12" displayName="テーブル12" ref="A1:E87" totalsRowCount="1" headerRowDxfId="76" headerRowBorderDxfId="75" tableBorderDxfId="74" totalsRowBorderDxfId="73">
+  <autoFilter ref="A1:E86"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="データセット名" dataDxfId="69" totalsRowDxfId="65"/>
-    <tableColumn id="3" name=" PRDC" totalsRowFunction="average" dataDxfId="68" totalsRowDxfId="63"/>
-    <tableColumn id="4" name="HOPRDC" totalsRowFunction="average" dataDxfId="67" totalsRowDxfId="62"/>
-    <tableColumn id="5" name="NMD" totalsRowFunction="average" dataDxfId="66" totalsRowDxfId="61"/>
-    <tableColumn id="6" name=" WNMD" totalsRowFunction="average" dataDxfId="26" totalsRowDxfId="60"/>
+    <tableColumn id="1" name="データセット名" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="3" name=" PRDC" totalsRowFunction="average" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="4" name="HOPRDC" totalsRowFunction="average" dataDxfId="68" totalsRowDxfId="67"/>
+    <tableColumn id="5" name="NMD" totalsRowFunction="average" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="6" name=" WNMD" totalsRowFunction="average" dataDxfId="64" totalsRowDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="テーブル611" displayName="テーブル611" ref="A1:H90" totalsRowShown="0" headerRowDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="テーブル611" displayName="テーブル611" ref="A1:H90" totalsRowShown="0" headerRowDxfId="61">
   <autoFilter ref="A1:H90"/>
   <tableColumns count="8">
     <tableColumn id="1" name="データセット名"/>
@@ -11722,42 +11611,42 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="テーブル13" displayName="テーブル13" ref="A1:E87" totalsRowCount="1" headerRowDxfId="13" headerRowBorderDxfId="19">
-  <autoFilter ref="A1:E87"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="テーブル13" displayName="テーブル13" ref="A1:E87" totalsRowCount="1" headerRowDxfId="54" headerRowBorderDxfId="53">
+  <autoFilter ref="A1:E86"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="データセット名" dataDxfId="18"/>
-    <tableColumn id="2" name=" PRDC" totalsRowFunction="average" dataDxfId="17"/>
-    <tableColumn id="3" name="HOPRDC" totalsRowFunction="average" dataDxfId="16"/>
-    <tableColumn id="4" name=" NMD" totalsRowFunction="average" dataDxfId="15"/>
-    <tableColumn id="5" name=" WNMD" totalsRowFunction="average" dataDxfId="14"/>
+    <tableColumn id="1" name="データセット名" dataDxfId="52"/>
+    <tableColumn id="2" name=" PRDC" totalsRowFunction="average" dataDxfId="51"/>
+    <tableColumn id="3" name="HOPRDC" totalsRowFunction="average" dataDxfId="50"/>
+    <tableColumn id="4" name=" NMD" totalsRowFunction="average" dataDxfId="49"/>
+    <tableColumn id="5" name=" WNMD" totalsRowFunction="average" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="テーブル15" displayName="テーブル15" ref="A1:E86" totalsRowShown="0" headerRowDxfId="37" dataDxfId="64" headerRowBorderDxfId="42" tableBorderDxfId="43" totalsRowBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="テーブル15" displayName="テーブル15" ref="A1:E86" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40" totalsRowBorderDxfId="39">
   <autoFilter ref="A1:E86"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="データセット名" dataDxfId="36"/>
-    <tableColumn id="3" name="PRDC" dataDxfId="40"/>
-    <tableColumn id="4" name="HOPRDC" dataDxfId="35"/>
-    <tableColumn id="5" name="NMD" dataDxfId="39"/>
-    <tableColumn id="6" name="WNMD" dataDxfId="38"/>
+    <tableColumn id="1" name="データセット名" dataDxfId="38"/>
+    <tableColumn id="3" name="PRDC" dataDxfId="37"/>
+    <tableColumn id="4" name="HOPRDC" dataDxfId="36"/>
+    <tableColumn id="5" name="NMD" dataDxfId="35"/>
+    <tableColumn id="6" name="WNMD" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="テーブル14" displayName="テーブル14" ref="A1:E87" totalsRowCount="1" headerRowDxfId="0" headerRowBorderDxfId="6">
-  <autoFilter ref="A1:E87"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="テーブル14" displayName="テーブル14" ref="A1:E87" totalsRowCount="1" headerRowDxfId="27" headerRowBorderDxfId="26">
+  <autoFilter ref="A1:E86"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="データセット名" dataDxfId="5"/>
-    <tableColumn id="2" name="PRDC" totalsRowFunction="average" dataDxfId="4"/>
-    <tableColumn id="3" name="HOPRDC" totalsRowFunction="average" dataDxfId="3"/>
-    <tableColumn id="4" name="NMD" totalsRowFunction="average" dataDxfId="2"/>
-    <tableColumn id="5" name="WNMD" totalsRowFunction="average" dataDxfId="1"/>
+    <tableColumn id="1" name="データセット名" dataDxfId="25"/>
+    <tableColumn id="2" name="PRDC" totalsRowFunction="average" dataDxfId="24"/>
+    <tableColumn id="3" name="HOPRDC" totalsRowFunction="average" dataDxfId="23"/>
+    <tableColumn id="4" name="NMD" totalsRowFunction="average" dataDxfId="22"/>
+    <tableColumn id="5" name="WNMD" totalsRowFunction="average" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11776,18 +11665,18 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="テーブル5" displayName="テーブル5" ref="A1:F101" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="テーブル5" displayName="テーブル5" ref="A1:F101" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:F101"/>
   <sortState ref="A2:F101">
     <sortCondition ref="C1:C101"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" name="ファイル名"/>
-    <tableColumn id="2" name="カテゴリ" dataDxfId="91"/>
-    <tableColumn id="3" name="NMD順位" dataDxfId="90"/>
-    <tableColumn id="4" name="NMD" dataDxfId="89"/>
-    <tableColumn id="5" name="WNMD順位" dataDxfId="88"/>
-    <tableColumn id="6" name="WNMD" dataDxfId="87"/>
+    <tableColumn id="2" name="カテゴリ" dataDxfId="18"/>
+    <tableColumn id="3" name="NMD順位" dataDxfId="17"/>
+    <tableColumn id="4" name="NMD" dataDxfId="16"/>
+    <tableColumn id="5" name="WNMD順位" dataDxfId="15"/>
+    <tableColumn id="6" name="WNMD" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -20863,12 +20752,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C2:C84">
-    <cfRule type="expression" dxfId="45" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>$B2&lt;$C2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E86">
-    <cfRule type="expression" dxfId="44" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>$D2&lt;$E2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21670,7 +21559,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="30" t="s">
         <v>7</v>
       </c>
@@ -28643,8 +28532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -28659,19 +28548,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="68" t="s">
         <v>441</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="64" t="s">
         <v>442</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="70" t="s">
         <v>444</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="64" t="s">
         <v>445</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="65" t="s">
         <v>446</v>
       </c>
       <c r="H1" s="36"/>
@@ -30749,16 +30638,16 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A86" s="72" t="s">
+      <c r="A86" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="B86" s="70">
+      <c r="B86" s="67">
         <v>0.54800000000000004</v>
       </c>
-      <c r="C86" s="74">
+      <c r="C86" s="71">
         <v>0.55900000000000005</v>
       </c>
-      <c r="D86" s="70">
+      <c r="D86" s="67">
         <v>0.70799999999999996</v>
       </c>
       <c r="E86" s="50">
@@ -30780,20 +30669,20 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A87" s="75"/>
-      <c r="B87" s="76">
+      <c r="A87" s="72"/>
+      <c r="B87" s="73">
         <f>SUBTOTAL(101,テーブル12[[ PRDC]])</f>
         <v>0.53912820512820525</v>
       </c>
-      <c r="C87" s="77">
+      <c r="C87" s="74">
         <f>SUBTOTAL(101,テーブル12[HOPRDC])</f>
         <v>0.5562307692307692</v>
       </c>
-      <c r="D87" s="76">
+      <c r="D87" s="73">
         <f>SUBTOTAL(101,テーブル12[NMD])</f>
         <v>0.60730588235294125</v>
       </c>
-      <c r="E87" s="78">
+      <c r="E87" s="75">
         <f>SUBTOTAL(101,テーブル12[[ WNMD]])</f>
         <v>0.60702352941176463</v>
       </c>
@@ -30832,32 +30721,32 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C2:C44">
-    <cfRule type="cellIs" dxfId="59" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="6" operator="greaterThan">
       <formula>"$B1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C70">
-    <cfRule type="cellIs" dxfId="58" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="81" priority="5" operator="greaterThan">
       <formula>"$B2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C84">
-    <cfRule type="expression" dxfId="57" priority="4">
+    <cfRule type="expression" dxfId="80" priority="4">
       <formula>$B2&lt;$C2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E86">
-    <cfRule type="expression" dxfId="56" priority="3">
+    <cfRule type="expression" dxfId="79" priority="3">
       <formula>$D2&lt;$E2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B86">
-    <cfRule type="expression" dxfId="55" priority="2">
+    <cfRule type="expression" dxfId="78" priority="2">
       <formula>$B2&gt;$C2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D86">
-    <cfRule type="expression" dxfId="54" priority="1">
+    <cfRule type="expression" dxfId="77" priority="1">
       <formula>$D2&gt;$E2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34089,7 +33978,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E2:F86">
-    <cfRule type="cellIs" dxfId="53" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="3" operator="greaterThan">
       <formula>$E2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34123,19 +34012,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="68" t="s">
         <v>441</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="64" t="s">
         <v>461</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="70" t="s">
         <v>462</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="64" t="s">
         <v>463</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="65" t="s">
         <v>464</v>
       </c>
     </row>
@@ -37560,12 +37449,12 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A86" s="72" t="s">
+      <c r="A86" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="B86" s="70"/>
-      <c r="C86" s="74"/>
-      <c r="D86" s="70">
+      <c r="B86" s="67"/>
+      <c r="C86" s="71"/>
+      <c r="D86" s="67">
         <v>0.68500000000000005</v>
       </c>
       <c r="E86" s="50">
@@ -37645,32 +37534,32 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C2:C44">
-    <cfRule type="cellIs" dxfId="25" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="6" operator="greaterThan">
       <formula>"$B1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C70">
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="5" operator="greaterThan">
       <formula>"$B2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C84">
-    <cfRule type="expression" dxfId="23" priority="4">
+    <cfRule type="expression" dxfId="58" priority="4">
       <formula>$B2&lt;$C2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E86">
-    <cfRule type="expression" dxfId="22" priority="3">
+    <cfRule type="expression" dxfId="57" priority="3">
       <formula>$D2&lt;$E2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B86">
-    <cfRule type="expression" dxfId="21" priority="2">
+    <cfRule type="expression" dxfId="56" priority="2">
       <formula>$B2&gt;$C2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D86">
-    <cfRule type="expression" dxfId="20" priority="1">
+    <cfRule type="expression" dxfId="55" priority="1">
       <formula>$D2&gt;$E2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37686,8 +37575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O95"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="K87" sqref="K87:L89"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection sqref="A1:E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -37701,19 +37590,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="68" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="64" t="s">
         <v>453</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="70" t="s">
         <v>450</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="64" t="s">
         <v>451</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="66" t="s">
         <v>452</v>
       </c>
       <c r="F1" s="8" t="s">
@@ -39796,19 +39685,19 @@
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A86" s="72" t="s">
+      <c r="A86" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="B86" s="70">
+      <c r="B86" s="67">
         <v>0.57799999999999996</v>
       </c>
-      <c r="C86" s="74">
+      <c r="C86" s="71">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D86" s="70">
+      <c r="D86" s="67">
         <v>0.73099999999999998</v>
       </c>
-      <c r="E86" s="66">
+      <c r="E86" s="63">
         <v>0.74299999999999999</v>
       </c>
       <c r="F86" s="12" t="str">
@@ -39966,22 +39855,22 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D2:E86">
-    <cfRule type="cellIs" dxfId="49" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="5" operator="greaterThan">
       <formula>$D2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C86">
-    <cfRule type="expression" dxfId="48" priority="3">
+    <cfRule type="expression" dxfId="46" priority="3">
       <formula>$B2&lt;$C2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B86">
-    <cfRule type="expression" dxfId="47" priority="2">
+    <cfRule type="expression" dxfId="45" priority="2">
       <formula>$B3&gt;$C3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D86">
-    <cfRule type="expression" dxfId="46" priority="1">
+    <cfRule type="expression" dxfId="44" priority="1">
       <formula>$D2&gt;$E2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40014,19 +39903,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="68" t="s">
         <v>441</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="64" t="s">
         <v>466</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="70" t="s">
         <v>447</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="64" t="s">
         <v>445</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="65" t="s">
         <v>448</v>
       </c>
     </row>
@@ -42443,12 +42332,12 @@
       <c r="K85" s="45"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A86" s="72" t="s">
+      <c r="A86" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="B86" s="70"/>
-      <c r="C86" s="74"/>
-      <c r="D86" s="70">
+      <c r="B86" s="67"/>
+      <c r="C86" s="71"/>
+      <c r="D86" s="67">
         <v>0.72299999999999998</v>
       </c>
       <c r="E86" s="50">
@@ -42516,32 +42405,32 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C2:C44">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="greaterThan">
       <formula>"$B1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C70">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="5" operator="greaterThan">
       <formula>"$B2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C84">
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="31" priority="4">
       <formula>$B2&lt;$C2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E86">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="30" priority="3">
       <formula>$D2&lt;$E2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B86">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="29" priority="2">
       <formula>$B2&gt;$C2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D86">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="28" priority="1">
       <formula>$D2&gt;$E2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42564,15 +42453,15 @@
   <sheetData>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B6" s="55"/>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="76" t="s">
         <v>456</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62" t="s">
+      <c r="D6" s="76"/>
+      <c r="E6" s="76" t="s">
         <v>457</v>
       </c>
-      <c r="F6" s="62"/>
-      <c r="H6" s="63"/>
+      <c r="F6" s="76"/>
+      <c r="H6" s="62"/>
       <c r="I6" s="47"/>
       <c r="J6" s="48" t="s">
         <v>458</v>
@@ -42585,7 +42474,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="63"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="47"/>
       <c r="C7" s="48" t="s">
         <v>454</v>
@@ -42599,7 +42488,7 @@
       <c r="F7" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="H7" s="64" t="s">
+      <c r="H7" s="77" t="s">
         <v>456</v>
       </c>
       <c r="I7" s="48" t="s">
@@ -42631,7 +42520,7 @@
       <c r="F8" s="48">
         <v>41</v>
       </c>
-      <c r="H8" s="65"/>
+      <c r="H8" s="78"/>
       <c r="I8" s="48" t="s">
         <v>455</v>
       </c>
@@ -42661,7 +42550,7 @@
       <c r="F9" s="48">
         <v>9</v>
       </c>
-      <c r="H9" s="62" t="s">
+      <c r="H9" s="76" t="s">
         <v>457</v>
       </c>
       <c r="I9" s="48" t="s">
@@ -42693,7 +42582,7 @@
       <c r="F10" s="48">
         <v>35</v>
       </c>
-      <c r="H10" s="62"/>
+      <c r="H10" s="76"/>
       <c r="I10" s="48" t="s">
         <v>103</v>
       </c>
